--- a/Downer/29267/F2LSIP ITP 5 - Lighting (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 5 - Lighting (reviewed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nz4100-ppfss01\shared_projects\310206020\msqa\19_qa\1_ITPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC76A31-820A-48B3-91DE-6A9BBE1B4E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9EC76A31-820A-48B3-91DE-6A9BBE1B4E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0DAF090-E10E-4A78-A587-E7E19B46EE7E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>Downer Approval</t>
   </si>
   <si>
-    <t>Matt Tipping</t>
-  </si>
-  <si>
     <t>Customer Approval</t>
   </si>
   <si>
@@ -648,17 +645,6 @@
     <t>Prepared By:</t>
   </si>
   <si>
-    <t>Add Identification Marking (NZTA M26 2.4)
-All lighting columns and outreach arms shall be clearly and durably marked 
-with the following information: 
-• Name, identifying mark or symbol of the manufacturer 
-• Year of manufacture (or at least the last two digits of the year in which 
-the marking was affixed) 
-• Manufacturers model number or identification reference 
-• Impact classification and performance class (F if passively 
-safe/frangible, blank otherwise).</t>
-  </si>
-  <si>
     <t>Information to be provided by supplier</t>
   </si>
   <si>
@@ -673,44 +659,35 @@
 This information may be lighting column type or wind zone specific and cover the general supply of the lighting columns. This generic information must be submitted initially by the supplier to the NZTA.</t>
   </si>
   <si>
-    <t>Add Identification Marking (NZTA M26 2.4)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Poles to be located a minimum of 1m behind kerb/edge of seal &amp; at right angles (90°) to kerb lines and lane markings.
+    <t>Matt Erard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poles to be located a minimum of 1m behind kerb/edge of seal &amp; at right angles (90°) to kerb lines and lane markings.
 When poles are set in place they shall be vertical to within 1°. 
 When each luminaire is installed it shall have the required tilt to within 2° 
 The axis of the luminaire beam shall be in a vertical plane to within 2°.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Add - Columns shall be installed within +/- 100mm of the approved marked location both 
+Columns shall be installed within +/- 100mm of the approved marked location both 
 longitudinally and laterally.  Height above finished ground level to ± 50mm of the 
 manufacturer’s level. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per NZS 3112 - Concrete surrounding base to be minimum 20MPa at 28 days
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Add Columns shall be installed as per the manufacturer’s recommendations. </t>
-    </r>
+  </si>
+  <si>
+    <t>Add Identification Marking 
+(NZTA M26 2.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per NZS 3112 - Concrete surrounding base to be minimum 20MPa at 28 days
+Columns shall be installed as per the manufacturer’s recommendations. </t>
+  </si>
+  <si>
+    <t>Identification Marking (NZTA M26 2.4)
+All lighting columns and outreach arms shall be clearly and durably marked 
+with the following information: 
+• Name, identifying mark or symbol of the manufacturer 
+• Year of manufacture (or at least the last two digits of the year in which 
+the marking was affixed) 
+• Manufacturers model number or identification reference 
+• Impact classification and performance class (F if passively 
+safe/frangible, blank otherwise).</t>
   </si>
 </sst>
 </file>
@@ -2678,6 +2655,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2756,129 +2832,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2951,6 +2904,12 @@
     <xf numFmtId="0" fontId="30" fillId="42" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="42" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2963,14 +2922,32 @@
     <xf numFmtId="0" fontId="30" fillId="43" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3324,102 +3301,102 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A33" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="123" t="s">
+      <c r="B3" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="111">
         <v>558010</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="119"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3427,18 +3404,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3458,18 +3435,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
+      <c r="B6" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3477,32 +3454,32 @@
         <v>18</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80" t="s">
+      <c r="B7" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3518,14 +3495,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
@@ -3541,22 +3518,22 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="123"/>
       <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="120">
         <v>1</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
@@ -3576,18 +3553,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="B10" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
       <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
@@ -3601,24 +3578,24 @@
         <v>41</v>
       </c>
       <c r="L10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
+      <c r="B11" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
@@ -3632,24 +3609,24 @@
         <v>46</v>
       </c>
       <c r="L11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
+      <c r="B12" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3665,14 +3642,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
@@ -3688,18 +3665,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
@@ -3713,20 +3690,20 @@
         <v>61</v>
       </c>
       <c r="L14" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="2" t="s">
         <v>62</v>
       </c>
@@ -3742,22 +3719,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+        <v>172</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="78">
         <v>45056</v>
       </c>
-      <c r="G16" s="104"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
@@ -3771,26 +3748,26 @@
         <v>70</v>
       </c>
       <c r="L16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="21" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="23" t="s">
         <v>73</v>
       </c>
@@ -3800,41 +3777,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="110"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
     </row>
-    <row r="19" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="s">
+    <row r="19" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="114" t="s">
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
       <c r="L19" s="13" t="s">
         <v>66</v>
       </c>
@@ -3842,26 +3819,26 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+    <row r="20" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97" t="s">
+      <c r="D20" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
       <c r="L20" s="3" t="s">
         <v>66</v>
       </c>
@@ -3869,24 +3846,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="100"/>
+    <row r="21" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="97"/>
       <c r="C21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="102" t="s">
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
       <c r="L21" s="14" t="s">
         <v>66</v>
       </c>
@@ -3894,32 +3871,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -3935,6 +3889,29 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -3958,98 +3935,98 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="C1" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="D1" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="E1" s="149" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="F1" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="159" t="s">
+      <c r="G1" s="145"/>
+      <c r="H1" s="145" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
+    </row>
+    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153" t="s">
+      <c r="J2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137"/>
+      <c r="K2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="34" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="34" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="F3" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="161" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="162"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="43" t="s">
         <v>32</v>
       </c>
@@ -4057,49 +4034,49 @@
         <v>31</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="43"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="1:12" s="34" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="34" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47"/>
       <c r="I4" s="47"/>
       <c r="J4" s="48"/>
       <c r="K4" s="47"/>
       <c r="L4" s="48"/>
     </row>
-    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="134"/>
+      <c r="F5" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="163"/>
       <c r="H5" s="32" t="s">
         <v>53</v>
       </c>
@@ -4112,14 +4089,14 @@
       <c r="K5" s="32"/>
       <c r="L5" s="37"/>
     </row>
-    <row r="6" spans="1:12" ht="156" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="164" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
-      <c r="B6" s="164" t="s">
-        <v>175</v>
+      <c r="B6" s="68" t="s">
+        <v>173</v>
       </c>
       <c r="C6" s="58"/>
-      <c r="D6" s="164" t="s">
-        <v>176</v>
+      <c r="D6" s="68" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="55"/>
@@ -4130,26 +4107,26 @@
       <c r="K6" s="33"/>
       <c r="L6" s="38"/>
     </row>
-    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="134"/>
+      <c r="G7" s="163"/>
       <c r="H7" s="33" t="s">
         <v>68</v>
       </c>
@@ -4157,31 +4134,31 @@
         <v>67</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="80.5" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="134"/>
+      <c r="F8" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="163"/>
       <c r="H8" s="33" t="s">
         <v>53</v>
       </c>
@@ -4189,31 +4166,31 @@
         <v>52</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="38"/>
     </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="C9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>157</v>
-      </c>
       <c r="E9" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="134"/>
+        <v>167</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="163"/>
       <c r="H9" s="33" t="s">
         <v>53</v>
       </c>
@@ -4221,49 +4198,49 @@
         <v>52</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
       <c r="H10" s="47"/>
       <c r="I10" s="47"/>
       <c r="J10" s="48"/>
       <c r="K10" s="47"/>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="57.5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="E11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="134"/>
+      <c r="G11" s="163"/>
       <c r="H11" s="33" t="s">
         <v>68</v>
       </c>
@@ -4271,31 +4248,31 @@
         <v>67</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="D12" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="131" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="132"/>
+      <c r="F12" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="161"/>
       <c r="H12" s="32" t="s">
         <v>53</v>
       </c>
@@ -4303,31 +4280,31 @@
         <v>52</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="D13" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>151</v>
-      </c>
       <c r="E13" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="126"/>
+        <v>104</v>
+      </c>
+      <c r="F13" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="157"/>
       <c r="H13" s="57" t="s">
         <v>68</v>
       </c>
@@ -4335,31 +4312,31 @@
         <v>67</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K13" s="33"/>
       <c r="L13" s="38"/>
     </row>
-    <row r="14" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="128"/>
+        <v>104</v>
+      </c>
+      <c r="F14" s="151" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="152"/>
       <c r="H14" s="56" t="s">
         <v>39</v>
       </c>
@@ -4367,19 +4344,19 @@
         <v>38</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="164" t="s">
         <v>177</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="163" t="s">
-        <v>174</v>
+      <c r="D15" s="165" t="s">
+        <v>179</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="65"/>
@@ -4390,26 +4367,26 @@
       <c r="K15" s="32"/>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="F16" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="56" t="s">
         <v>53</v>
       </c>
@@ -4417,67 +4394,77 @@
         <v>52</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
+    <row r="17" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="142"/>
+    <row r="18" spans="1:12" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
       <c r="F18" s="50"/>
       <c r="G18" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="I18" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="146" t="s">
+      <c r="J18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="141"/>
-      <c r="L18" s="148"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="140"/>
     </row>
-    <row r="19" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145"/>
+    <row r="19" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="54"/>
       <c r="G19" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
+        <v>92</v>
+      </c>
+      <c r="H19" s="141"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A18:E19"/>
@@ -4494,16 +4481,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39"/>
@@ -4538,26 +4515,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc488396aafce8f105aa0f243fa0ab32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" xmlns:ns4="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf06c0961caa0653dafb542b2e70858f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
@@ -4785,10 +4742,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BDAB4EC-B2CB-4185-AAD8-4829C3159E1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4802,12 +4791,18 @@
     <ds:schemaRef ds:uri="eb285b10-c671-4894-b2db-3496e9e920b3"/>
     <ds:schemaRef ds:uri="11769c4a-3a36-4379-9582-368c46be3126"/>
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BDAB4EC-B2CB-4185-AAD8-4829C3159E1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
